--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1042963.776327593</v>
+        <v>1038501.421078975</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29959794.11825921</v>
+        <v>29959794.11825922</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7197684.807001658</v>
+        <v>7197684.807001652</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4654219.789582712</v>
+        <v>4654219.789582711</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>212.2415872287033</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.43123191120419</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T11" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>133.527431151269</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T12" t="n">
         <v>136.1178674008418</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.6902671187685</v>
+        <v>48.54963872249592</v>
       </c>
       <c r="T13" t="n">
         <v>237.0460627746974</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.2785943394208</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>265.7619783695294</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U14" t="n">
         <v>255.6102460520883</v>
@@ -1669,13 +1669,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>134.7708022334372</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T15" t="n">
         <v>136.1178674008418</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>89.84156137411068</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H16" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.6902671187685</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3739240470755</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>255.7645796107139</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.9003444702288</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>121.3972306395259</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.03568747117038</v>
       </c>
       <c r="H18" t="n">
-        <v>42.43550073219758</v>
+        <v>42.43550073219759</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.49604960007741</v>
+        <v>60.49604960007743</v>
       </c>
       <c r="T18" t="n">
         <v>136.1178674008418</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>129.9732800586747</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H19" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.949028315574182</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T19" t="n">
         <v>237.0460627746974</v>
@@ -2061,13 +2061,13 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>245.2519324529192</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.9003444702288</v>
+        <v>6.873755633640258</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>375.1048337334536</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T21" t="n">
         <v>136.1178674008418</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.949028315574175</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S22" t="n">
         <v>152.6902671187685</v>
@@ -2298,13 +2298,13 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>90.41040678461495</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>80.7058086642442</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>238.1258539170097</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6102460520883</v>
+        <v>155.1920599008218</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>3.070412483514499</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.05349977133822</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>152.6902671187685</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U25" t="n">
         <v>277.3333288037839</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>89.06807415998409</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>21.23973893759633</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T27" t="n">
         <v>136.1178674008418</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>79.28269226013751</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.949028315574175</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S28" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3333288037839</v>
+        <v>24.82001033167039</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2809,7 +2809,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H29" t="n">
-        <v>274.2645523750966</v>
+        <v>24.24189271410377</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>132.2254569153788</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T30" t="n">
         <v>136.1178674008418</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>100.8233109873652</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I31" t="n">
         <v>71.60381629275079</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S31" t="n">
-        <v>3.52652631019333</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T31" t="n">
         <v>237.0460627746974</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3037,7 +3037,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.873755633640307</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>20.9881272433312</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T33" t="n">
         <v>136.1178674008418</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.949028315574175</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>152.6902671187685</v>
+        <v>52.53795622972324</v>
       </c>
       <c r="T34" t="n">
         <v>237.0460627746974</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.4418192565553</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>83.63803940014463</v>
       </c>
       <c r="C35" t="n">
-        <v>20.17994648586029</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T36" t="n">
         <v>136.1178674008418</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H37" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.949028315574175</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S37" t="n">
         <v>152.6902671187685</v>
@@ -3483,13 +3483,13 @@
         <v>277.3333288037839</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>175.2568313474513</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>173.4601296133436</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>212.8830795879296</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>212.6232918120261</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.49604960007743</v>
+        <v>60.49604960007742</v>
       </c>
       <c r="T39" t="n">
         <v>136.1178674008418</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6910211419383</v>
+        <v>66.11220909360048</v>
       </c>
       <c r="H40" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.949028315574175</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T40" t="n">
         <v>237.0460627746974</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>34.47402149356058</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H41" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>153.482143251038</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>238.3289008620048</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.13489147230113</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6910211419383</v>
+        <v>60.0534997713391</v>
       </c>
       <c r="H43" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>5.949028315574168</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T43" t="n">
         <v>237.0460627746974</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3988,10 +3988,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>20.14389678220479</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.27081655700689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H46" t="n">
-        <v>58.76041540119283</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I46" t="n">
         <v>71.60381629275079</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.0460627746974</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3333288037839</v>
+        <v>22.39089180353029</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1085.244741964546</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="C11" t="n">
-        <v>870.8593003193911</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="D11" t="n">
-        <v>870.8593003193911</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="E11" t="n">
-        <v>870.8593003193911</v>
+        <v>745.5894102253965</v>
       </c>
       <c r="F11" t="n">
-        <v>445.7351185087913</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="G11" t="n">
-        <v>43.4303270258102</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H11" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I11" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J11" t="n">
-        <v>226.1880352922988</v>
+        <v>226.188035292299</v>
       </c>
       <c r="K11" t="n">
-        <v>444.3985098873425</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L11" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M11" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N11" t="n">
         <v>1352.989294408674</v>
@@ -5062,7 +5062,7 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q11" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R11" t="n">
         <v>2171.51635129051</v>
@@ -5074,19 +5074,19 @@
         <v>1901.484455955729</v>
       </c>
       <c r="U11" t="n">
-        <v>1901.484455955729</v>
+        <v>1643.292288226346</v>
       </c>
       <c r="V11" t="n">
-        <v>1901.484455955729</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="W11" t="n">
-        <v>1505.093106256076</v>
+        <v>1150.926680270506</v>
       </c>
       <c r="X11" t="n">
-        <v>1505.093106256076</v>
+        <v>1150.926680270506</v>
       </c>
       <c r="Y11" t="n">
-        <v>1505.093106256076</v>
+        <v>745.5894102253965</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>86.29446917954513</v>
       </c>
       <c r="H12" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I12" t="n">
-        <v>64.14840690919139</v>
+        <v>64.14840690919138</v>
       </c>
       <c r="J12" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392671</v>
       </c>
       <c r="K12" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L12" t="n">
-        <v>742.6170386413061</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M12" t="n">
-        <v>990.0466997665799</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.366492570713</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O12" t="n">
-        <v>1477.238310130523</v>
+        <v>1477.238310130524</v>
       </c>
       <c r="P12" t="n">
         <v>1659.391674476716</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.9656721305907</v>
+        <v>387.2646643723338</v>
       </c>
       <c r="C13" t="n">
-        <v>580.9656721305907</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="D13" t="n">
-        <v>417.6488992573614</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="E13" t="n">
-        <v>251.440693410215</v>
+        <v>215.2921012512498</v>
       </c>
       <c r="F13" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G13" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H13" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I13" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J13" t="n">
-        <v>86.23013562371111</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K13" t="n">
-        <v>397.469925046596</v>
+        <v>416.6643740856492</v>
       </c>
       <c r="L13" t="n">
-        <v>885.1239682257018</v>
+        <v>527.92952367359</v>
       </c>
       <c r="M13" t="n">
-        <v>1416.502419393679</v>
+        <v>972.703315981149</v>
       </c>
       <c r="N13" t="n">
-        <v>1930.853118449054</v>
+        <v>1089.021092194643</v>
       </c>
       <c r="O13" t="n">
-        <v>2034.990534410735</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P13" t="n">
-        <v>2121.000513751126</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q13" t="n">
         <v>2171.51635129051</v>
@@ -5226,25 +5226,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.283758241249</v>
+        <v>2122.476312176877</v>
       </c>
       <c r="T13" t="n">
-        <v>1777.84329079206</v>
+        <v>1883.035844727688</v>
       </c>
       <c r="U13" t="n">
-        <v>1497.708615232682</v>
+        <v>1602.90116916831</v>
       </c>
       <c r="V13" t="n">
-        <v>1215.997147840711</v>
+        <v>1321.189701776339</v>
       </c>
       <c r="W13" t="n">
-        <v>1215.997147840711</v>
+        <v>1046.337297948852</v>
       </c>
       <c r="X13" t="n">
-        <v>973.4332512865159</v>
+        <v>803.7734013946574</v>
       </c>
       <c r="Y13" t="n">
-        <v>771.1316408426565</v>
+        <v>577.4306330843995</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>470.3310570125101</v>
+        <v>1149.670749884478</v>
       </c>
       <c r="C14" t="n">
-        <v>43.43032702581019</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="D14" t="n">
-        <v>43.43032702581019</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="E14" t="n">
-        <v>43.43032702581019</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="F14" t="n">
-        <v>43.43032702581019</v>
+        <v>722.7700198977777</v>
       </c>
       <c r="G14" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H14" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I14" t="n">
-        <v>86.09345146672786</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J14" t="n">
-        <v>226.1880352922985</v>
+        <v>226.188035292299</v>
       </c>
       <c r="K14" t="n">
-        <v>444.3985098873423</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L14" t="n">
-        <v>721.1044354144758</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M14" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N14" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P14" t="n">
         <v>1901.41298331237</v>
@@ -5305,25 +5305,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S14" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T14" t="n">
-        <v>2171.51635129051</v>
+        <v>1901.484455955729</v>
       </c>
       <c r="U14" t="n">
-        <v>1913.324183561127</v>
+        <v>1643.292288226346</v>
       </c>
       <c r="V14" t="n">
-        <v>1555.834768687377</v>
+        <v>1285.802873352596</v>
       </c>
       <c r="W14" t="n">
-        <v>1555.834768687377</v>
+        <v>1149.670749884478</v>
       </c>
       <c r="X14" t="n">
-        <v>1144.114769855124</v>
+        <v>1149.670749884478</v>
       </c>
       <c r="Y14" t="n">
-        <v>738.7774998100145</v>
+        <v>1149.670749884478</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I15" t="n">
-        <v>87.60571275360323</v>
+        <v>64.14840690919138</v>
       </c>
       <c r="J15" t="n">
-        <v>167.9871870056219</v>
+        <v>383.1970525392671</v>
       </c>
       <c r="K15" t="n">
-        <v>318.0720884929719</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L15" t="n">
-        <v>527.4071731076615</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M15" t="n">
-        <v>774.8368342329352</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N15" t="n">
-        <v>1140.910992285808</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O15" t="n">
-        <v>1371.782809845618</v>
+        <v>1477.238310130524</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.93617419181</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q15" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R15" t="n">
         <v>1815.841701345204</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>852.4729223127196</v>
+        <v>837.0591898235696</v>
       </c>
       <c r="C16" t="n">
-        <v>680.5003591916355</v>
+        <v>837.0591898235696</v>
       </c>
       <c r="D16" t="n">
-        <v>517.1835863184062</v>
+        <v>673.7424169503403</v>
       </c>
       <c r="E16" t="n">
-        <v>350.9753804712598</v>
+        <v>507.5342111031938</v>
       </c>
       <c r="F16" t="n">
-        <v>179.1136062458203</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="G16" t="n">
-        <v>179.1136062458203</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H16" t="n">
-        <v>43.43032702581019</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="I16" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J16" t="n">
-        <v>86.23013562371109</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K16" t="n">
         <v>169.3817649716271</v>
       </c>
       <c r="L16" t="n">
-        <v>657.0358081507329</v>
+        <v>657.0358081507328</v>
       </c>
       <c r="M16" t="n">
         <v>1188.41425931871</v>
@@ -5451,7 +5451,7 @@
         <v>1702.764958374085</v>
       </c>
       <c r="O16" t="n">
-        <v>1806.902374335766</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P16" t="n">
         <v>2121.000513751125</v>
@@ -5460,28 +5460,28 @@
         <v>2171.51635129051</v>
       </c>
       <c r="R16" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S16" t="n">
-        <v>2011.274638730567</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T16" t="n">
-        <v>2011.274638730567</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U16" t="n">
-        <v>1731.13996317119</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="V16" t="n">
-        <v>1560.055191406467</v>
+        <v>1496.131823400088</v>
       </c>
       <c r="W16" t="n">
-        <v>1285.20278757898</v>
+        <v>1496.131823400088</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.638891024785</v>
+        <v>1253.567926845893</v>
       </c>
       <c r="Y16" t="n">
-        <v>1042.638891024785</v>
+        <v>1027.225158535635</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>727.7553270907949</v>
+        <v>1173.342898253639</v>
       </c>
       <c r="C17" t="n">
-        <v>727.7553270907949</v>
+        <v>746.4421682669391</v>
       </c>
       <c r="D17" t="n">
-        <v>727.7553270907949</v>
+        <v>746.4421682669391</v>
       </c>
       <c r="E17" t="n">
-        <v>301.7783872386525</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="F17" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="G17" t="n">
-        <v>43.43032702581019</v>
+        <v>320.4652284147967</v>
       </c>
       <c r="H17" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I17" t="n">
-        <v>86.09345146672851</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J17" t="n">
         <v>226.1880352922992</v>
       </c>
       <c r="K17" t="n">
-        <v>444.3985098873425</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L17" t="n">
-        <v>721.104435414476</v>
+        <v>721.1044354144761</v>
       </c>
       <c r="M17" t="n">
         <v>1034.139376672043</v>
@@ -5530,7 +5530,7 @@
         <v>1352.989294408673</v>
       </c>
       <c r="O17" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P17" t="n">
         <v>1901.41298331237</v>
@@ -5542,25 +5542,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S17" t="n">
-        <v>2113.505005925657</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T17" t="n">
-        <v>1901.484455955729</v>
+        <v>1959.495801320581</v>
       </c>
       <c r="U17" t="n">
-        <v>1901.484455955729</v>
+        <v>1701.303633591199</v>
       </c>
       <c r="V17" t="n">
-        <v>1543.995041081978</v>
+        <v>1701.303633591199</v>
       </c>
       <c r="W17" t="n">
-        <v>1147.603691382325</v>
+        <v>1578.680168298749</v>
       </c>
       <c r="X17" t="n">
-        <v>1147.603691382325</v>
+        <v>1578.680168298749</v>
       </c>
       <c r="Y17" t="n">
-        <v>1147.603691382325</v>
+        <v>1173.342898253639</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I18" t="n">
-        <v>64.14840690919138</v>
+        <v>64.14840690919137</v>
       </c>
       <c r="J18" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392671</v>
       </c>
       <c r="K18" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L18" t="n">
-        <v>503.9498672632496</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M18" t="n">
-        <v>884.5911994816743</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N18" t="n">
-        <v>1140.910992285808</v>
+        <v>1246.366492570714</v>
       </c>
       <c r="O18" t="n">
-        <v>1371.782809845618</v>
+        <v>1477.238310130524</v>
       </c>
       <c r="P18" t="n">
-        <v>1553.93617419181</v>
+        <v>1659.391674476716</v>
       </c>
       <c r="Q18" t="n">
-        <v>1667.589004942817</v>
+        <v>1773.044505227723</v>
       </c>
       <c r="R18" t="n">
         <v>1815.841701345204</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.0161708779372</v>
+        <v>552.6091301722714</v>
       </c>
       <c r="C19" t="n">
-        <v>546.0436077568531</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="D19" t="n">
-        <v>382.7268348836238</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="E19" t="n">
-        <v>382.7268348836238</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F19" t="n">
-        <v>251.440693410215</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G19" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H19" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I19" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J19" t="n">
-        <v>164.151852271932</v>
+        <v>86.23013562371106</v>
       </c>
       <c r="K19" t="n">
-        <v>247.303481619848</v>
+        <v>416.6643740856491</v>
       </c>
       <c r="L19" t="n">
-        <v>734.9575247989537</v>
+        <v>904.3184172647549</v>
       </c>
       <c r="M19" t="n">
-        <v>1103.746214820371</v>
+        <v>1022.161387969911</v>
       </c>
       <c r="N19" t="n">
-        <v>1618.096913875745</v>
+        <v>1138.479164183405</v>
       </c>
       <c r="O19" t="n">
-        <v>1722.234329837427</v>
+        <v>1570.860832459528</v>
       </c>
       <c r="P19" t="n">
-        <v>2121.000513751125</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q19" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R19" t="n">
-        <v>2171.51635129051</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S19" t="n">
-        <v>2171.51635129051</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="T19" t="n">
-        <v>1932.07588384132</v>
+        <v>1771.834171281378</v>
       </c>
       <c r="U19" t="n">
-        <v>1651.941208281943</v>
+        <v>1491.699495722</v>
       </c>
       <c r="V19" t="n">
-        <v>1651.941208281943</v>
+        <v>1243.970271022082</v>
       </c>
       <c r="W19" t="n">
-        <v>1377.088804454456</v>
+        <v>969.117867194595</v>
       </c>
       <c r="X19" t="n">
-        <v>1134.524907900261</v>
+        <v>969.117867194595</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.1821395900029</v>
+        <v>742.775098884337</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1168.882031040396</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="C20" t="n">
-        <v>1168.882031040396</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="D20" t="n">
-        <v>745.5894102253965</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E20" t="n">
-        <v>745.5894102253965</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F20" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G20" t="n">
-        <v>320.4652284147967</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H20" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09345146672865</v>
+        <v>86.09345146672848</v>
       </c>
       <c r="J20" t="n">
-        <v>226.1880352922993</v>
+        <v>226.1880352922991</v>
       </c>
       <c r="K20" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873425</v>
       </c>
       <c r="L20" t="n">
-        <v>721.1044354144764</v>
+        <v>721.104435414476</v>
       </c>
       <c r="M20" t="n">
         <v>1034.139376672043</v>
@@ -5773,7 +5773,7 @@
         <v>1901.41298331237</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.956330428339</v>
+        <v>2080.956330428338</v>
       </c>
       <c r="R20" t="n">
         <v>2171.51635129051</v>
@@ -5782,22 +5782,22 @@
         <v>2171.51635129051</v>
       </c>
       <c r="T20" t="n">
-        <v>1959.495801320582</v>
+        <v>2164.573163781782</v>
       </c>
       <c r="U20" t="n">
-        <v>1959.495801320582</v>
+        <v>2164.573163781782</v>
       </c>
       <c r="V20" t="n">
-        <v>1959.495801320582</v>
+        <v>2164.573163781782</v>
       </c>
       <c r="W20" t="n">
-        <v>1580.602029872649</v>
+        <v>2164.573163781782</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.882031040396</v>
+        <v>2164.573163781782</v>
       </c>
       <c r="Y20" t="n">
-        <v>1168.882031040396</v>
+        <v>2164.573163781782</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>86.29446917954513</v>
       </c>
       <c r="H21" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I21" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J21" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392671</v>
       </c>
       <c r="K21" t="n">
-        <v>294.61478264856</v>
+        <v>533.2819540266171</v>
       </c>
       <c r="L21" t="n">
-        <v>503.9498672632495</v>
+        <v>742.6170386413066</v>
       </c>
       <c r="M21" t="n">
-        <v>751.3795283885232</v>
+        <v>990.0466997665803</v>
       </c>
       <c r="N21" t="n">
         <v>1246.366492570714</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>459.5917515367286</v>
+        <v>718.8173360194179</v>
       </c>
       <c r="C22" t="n">
-        <v>287.6191884156445</v>
+        <v>546.8447728983339</v>
       </c>
       <c r="D22" t="n">
-        <v>287.6191884156445</v>
+        <v>546.8447728983339</v>
       </c>
       <c r="E22" t="n">
-        <v>287.6191884156445</v>
+        <v>380.6365670511875</v>
       </c>
       <c r="F22" t="n">
-        <v>115.7574141902049</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G22" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H22" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I22" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="J22" t="n">
         <v>164.1518522719319</v>
@@ -5916,19 +5916,19 @@
         <v>494.58609073387</v>
       </c>
       <c r="L22" t="n">
-        <v>605.8512403218108</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M22" t="n">
-        <v>1137.229691489788</v>
+        <v>1100.083104618132</v>
       </c>
       <c r="N22" t="n">
-        <v>1466.723416497847</v>
+        <v>1401.777296767951</v>
       </c>
       <c r="O22" t="n">
-        <v>1570.860832459529</v>
+        <v>1883.617037032836</v>
       </c>
       <c r="P22" t="n">
-        <v>1969.627016373227</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q22" t="n">
         <v>2171.51635129051</v>
@@ -5937,25 +5937,25 @@
         <v>2165.507231779829</v>
       </c>
       <c r="S22" t="n">
-        <v>2011.274638730568</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="T22" t="n">
-        <v>1771.834171281379</v>
+        <v>1771.834171281378</v>
       </c>
       <c r="U22" t="n">
-        <v>1491.699495722001</v>
+        <v>1491.699495722</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.98802833003</v>
+        <v>1491.699495722</v>
       </c>
       <c r="W22" t="n">
-        <v>1118.664385113247</v>
+        <v>1216.847091894513</v>
       </c>
       <c r="X22" t="n">
-        <v>876.1004885590521</v>
+        <v>1135.326073041741</v>
       </c>
       <c r="Y22" t="n">
-        <v>649.7577202487942</v>
+        <v>908.9833047314835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1135.986404395847</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="C23" t="n">
-        <v>709.085674409147</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="D23" t="n">
-        <v>709.085674409147</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E23" t="n">
-        <v>709.085674409147</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F23" t="n">
-        <v>283.9614925985472</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G23" t="n">
-        <v>283.9614925985472</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H23" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672865</v>
       </c>
       <c r="J23" t="n">
-        <v>226.1880352922988</v>
+        <v>226.1880352922993</v>
       </c>
       <c r="K23" t="n">
-        <v>444.3985098873429</v>
+        <v>444.398509887343</v>
       </c>
       <c r="L23" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M23" t="n">
         <v>1034.139376672043</v>
@@ -6016,25 +6016,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S23" t="n">
-        <v>2171.51635129051</v>
+        <v>2113.505005925657</v>
       </c>
       <c r="T23" t="n">
-        <v>2171.51635129051</v>
+        <v>1901.484455955729</v>
       </c>
       <c r="U23" t="n">
-        <v>1913.324183561127</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="V23" t="n">
-        <v>1555.834768687377</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="W23" t="n">
-        <v>1555.834768687377</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="X23" t="n">
-        <v>1555.834768687377</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="Y23" t="n">
-        <v>1555.834768687377</v>
+        <v>1744.724799490252</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I24" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J24" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K24" t="n">
-        <v>294.61478264856</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L24" t="n">
-        <v>503.9498672632495</v>
+        <v>527.4071731076614</v>
       </c>
       <c r="M24" t="n">
-        <v>751.3795283885232</v>
+        <v>774.8368342329351</v>
       </c>
       <c r="N24" t="n">
-        <v>1007.699321192657</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O24" t="n">
-        <v>1238.571138752466</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P24" t="n">
-        <v>1420.724503098658</v>
+        <v>1444.18180894307</v>
       </c>
       <c r="Q24" t="n">
         <v>1667.589004942817</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>758.0673549294079</v>
+        <v>276.0629909260237</v>
       </c>
       <c r="C25" t="n">
-        <v>586.0947918083239</v>
+        <v>104.0904278049397</v>
       </c>
       <c r="D25" t="n">
-        <v>582.9933650572991</v>
+        <v>104.0904278049397</v>
       </c>
       <c r="E25" t="n">
-        <v>416.7851592101527</v>
+        <v>104.0904278049397</v>
       </c>
       <c r="F25" t="n">
-        <v>416.7851592101527</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G25" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H25" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I25" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J25" t="n">
-        <v>164.1518522719319</v>
+        <v>161.6313676087421</v>
       </c>
       <c r="K25" t="n">
-        <v>494.58609073387</v>
+        <v>244.7829969566581</v>
       </c>
       <c r="L25" t="n">
-        <v>605.8512403218108</v>
+        <v>356.0481465445988</v>
       </c>
       <c r="M25" t="n">
-        <v>723.6942110269665</v>
+        <v>887.4265977125763</v>
       </c>
       <c r="N25" t="n">
-        <v>1238.044910082341</v>
+        <v>1401.777296767951</v>
       </c>
       <c r="O25" t="n">
-        <v>1719.884650347226</v>
+        <v>1883.617037032836</v>
       </c>
       <c r="P25" t="n">
-        <v>2118.650834260924</v>
+        <v>1969.627016373226</v>
       </c>
       <c r="Q25" t="n">
         <v>2171.51635129051</v>
@@ -6177,22 +6177,22 @@
         <v>2011.274638730567</v>
       </c>
       <c r="T25" t="n">
-        <v>2011.274638730567</v>
+        <v>1771.834171281378</v>
       </c>
       <c r="U25" t="n">
-        <v>1731.13996317119</v>
+        <v>1491.699495722</v>
       </c>
       <c r="V25" t="n">
-        <v>1449.428495779219</v>
+        <v>1209.988028330029</v>
       </c>
       <c r="W25" t="n">
-        <v>1174.576091951732</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="X25" t="n">
-        <v>1174.576091951732</v>
+        <v>692.5717279483473</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.2333236414736</v>
+        <v>466.2289596380893</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>535.7028701855429</v>
+        <v>1744.724799490252</v>
       </c>
       <c r="C26" t="n">
-        <v>535.7028701855429</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="D26" t="n">
-        <v>535.7028701855429</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E26" t="n">
-        <v>535.7028701855429</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F26" t="n">
-        <v>445.7351185087913</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G26" t="n">
         <v>43.43032702581019</v>
@@ -6223,7 +6223,7 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I26" t="n">
-        <v>86.09345146672848</v>
+        <v>86.09345146672851</v>
       </c>
       <c r="J26" t="n">
         <v>226.1880352922991</v>
@@ -6232,16 +6232,16 @@
         <v>444.3985098873429</v>
       </c>
       <c r="L26" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M26" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N26" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P26" t="n">
         <v>1901.41298331237</v>
@@ -6256,22 +6256,22 @@
         <v>2171.51635129051</v>
       </c>
       <c r="T26" t="n">
-        <v>1959.495801320581</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U26" t="n">
-        <v>1701.303633591199</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V26" t="n">
-        <v>1343.814218717449</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W26" t="n">
-        <v>947.4228690177956</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="X26" t="n">
-        <v>535.7028701855429</v>
+        <v>2150.062069535362</v>
       </c>
       <c r="Y26" t="n">
-        <v>535.7028701855429</v>
+        <v>1744.724799490252</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I27" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J27" t="n">
-        <v>144.5298811612101</v>
+        <v>167.9871870056219</v>
       </c>
       <c r="K27" t="n">
-        <v>533.2819540266171</v>
+        <v>318.0720884929719</v>
       </c>
       <c r="L27" t="n">
-        <v>742.6170386413066</v>
+        <v>527.4071731076615</v>
       </c>
       <c r="M27" t="n">
-        <v>990.0466997665803</v>
+        <v>774.8368342329352</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.366492570714</v>
+        <v>1031.156627037069</v>
       </c>
       <c r="O27" t="n">
-        <v>1477.238310130524</v>
+        <v>1262.028444596878</v>
       </c>
       <c r="P27" t="n">
-        <v>1659.391674476716</v>
+        <v>1444.181808943071</v>
       </c>
       <c r="Q27" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R27" t="n">
         <v>1815.841701345204</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3558622027001</v>
+        <v>924.8000094771144</v>
       </c>
       <c r="C28" t="n">
-        <v>618.3832990816161</v>
+        <v>752.8274463560304</v>
       </c>
       <c r="D28" t="n">
-        <v>455.0665262083868</v>
+        <v>589.5106734828011</v>
       </c>
       <c r="E28" t="n">
-        <v>288.8583203612403</v>
+        <v>423.3024676356546</v>
       </c>
       <c r="F28" t="n">
-        <v>288.8583203612403</v>
+        <v>251.440693410215</v>
       </c>
       <c r="G28" t="n">
-        <v>123.5138545613026</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H28" t="n">
-        <v>43.43032702581019</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="I28" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J28" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K28" t="n">
-        <v>247.3034816198479</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L28" t="n">
-        <v>734.9575247989537</v>
+        <v>507.421643922498</v>
       </c>
       <c r="M28" t="n">
-        <v>852.8004955041094</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N28" t="n">
-        <v>1367.151194559484</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O28" t="n">
-        <v>1848.990934824369</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P28" t="n">
         <v>2121.000513751125</v>
@@ -6411,25 +6411,25 @@
         <v>2165.507231779829</v>
       </c>
       <c r="S28" t="n">
-        <v>2011.274638730567</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="T28" t="n">
-        <v>2011.274638730567</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="U28" t="n">
-        <v>1731.13996317119</v>
+        <v>2140.436514273091</v>
       </c>
       <c r="V28" t="n">
-        <v>1449.428495779219</v>
+        <v>1858.72504688112</v>
       </c>
       <c r="W28" t="n">
-        <v>1449.428495779219</v>
+        <v>1583.872643053633</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.864599225024</v>
+        <v>1341.308746499438</v>
       </c>
       <c r="Y28" t="n">
-        <v>980.5218309147658</v>
+        <v>1114.96597818918</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1147.894201708378</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="C29" t="n">
-        <v>1147.894201708378</v>
+        <v>1744.61562130381</v>
       </c>
       <c r="D29" t="n">
-        <v>1147.894201708378</v>
+        <v>1321.32300048881</v>
       </c>
       <c r="E29" t="n">
-        <v>1147.894201708378</v>
+        <v>895.3460606366676</v>
       </c>
       <c r="F29" t="n">
-        <v>722.7700198977777</v>
+        <v>470.2218788260678</v>
       </c>
       <c r="G29" t="n">
-        <v>320.4652284147967</v>
+        <v>67.91708734308673</v>
       </c>
       <c r="H29" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I29" t="n">
-        <v>86.09345146672831</v>
+        <v>86.09345146672851</v>
       </c>
       <c r="J29" t="n">
-        <v>226.1880352922988</v>
+        <v>226.1880352922991</v>
       </c>
       <c r="K29" t="n">
-        <v>444.3985098873425</v>
+        <v>444.3985098873426</v>
       </c>
       <c r="L29" t="n">
-        <v>721.1044354144758</v>
+        <v>721.104435414476</v>
       </c>
       <c r="M29" t="n">
         <v>1034.139376672043</v>
@@ -6478,7 +6478,7 @@
         <v>1352.989294408673</v>
       </c>
       <c r="O29" t="n">
-        <v>1651.903250255481</v>
+        <v>1651.903250255482</v>
       </c>
       <c r="P29" t="n">
         <v>1901.41298331237</v>
@@ -6493,22 +6493,22 @@
         <v>2171.51635129051</v>
       </c>
       <c r="T29" t="n">
-        <v>1959.495801320581</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U29" t="n">
-        <v>1701.303633591199</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V29" t="n">
-        <v>1701.303633591199</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="W29" t="n">
-        <v>1567.742565999908</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="X29" t="n">
-        <v>1567.742565999908</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="Y29" t="n">
-        <v>1567.742565999908</v>
+        <v>2171.51635129051</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>87.60571275360323</v>
       </c>
       <c r="J30" t="n">
-        <v>167.9871870056219</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K30" t="n">
-        <v>533.2819540266171</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L30" t="n">
-        <v>742.6170386413066</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M30" t="n">
-        <v>990.0466997665803</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.366492570714</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O30" t="n">
-        <v>1477.238310130524</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P30" t="n">
-        <v>1659.391674476716</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q30" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R30" t="n">
         <v>1815.841701345204</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>622.9085244099579</v>
+        <v>518.6268874802186</v>
       </c>
       <c r="C31" t="n">
-        <v>450.9359612888738</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="D31" t="n">
-        <v>287.6191884156445</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="E31" t="n">
-        <v>287.6191884156445</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="F31" t="n">
-        <v>115.7574141902049</v>
+        <v>416.7851592101527</v>
       </c>
       <c r="G31" t="n">
-        <v>115.7574141902049</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H31" t="n">
         <v>115.7574141902049</v>
@@ -6621,52 +6621,52 @@
         <v>43.43032702581019</v>
       </c>
       <c r="J31" t="n">
-        <v>86.23013562371108</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K31" t="n">
-        <v>416.6643740856492</v>
+        <v>247.303481619848</v>
       </c>
       <c r="L31" t="n">
-        <v>527.92952367359</v>
+        <v>358.5686312077888</v>
       </c>
       <c r="M31" t="n">
-        <v>645.7724943787457</v>
+        <v>889.9470823757663</v>
       </c>
       <c r="N31" t="n">
-        <v>1160.12319343412</v>
+        <v>1404.297781431141</v>
       </c>
       <c r="O31" t="n">
-        <v>1641.962933699005</v>
+        <v>1886.137521696026</v>
       </c>
       <c r="P31" t="n">
-        <v>2040.729117612703</v>
+        <v>1972.147501036416</v>
       </c>
       <c r="Q31" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R31" t="n">
-        <v>2171.51635129051</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S31" t="n">
-        <v>2167.954203502436</v>
+        <v>2011.274638730567</v>
       </c>
       <c r="T31" t="n">
-        <v>1928.513736053246</v>
+        <v>1771.834171281378</v>
       </c>
       <c r="U31" t="n">
-        <v>1648.379060493869</v>
+        <v>1491.699495722</v>
       </c>
       <c r="V31" t="n">
-        <v>1366.667593101898</v>
+        <v>1209.988028330029</v>
       </c>
       <c r="W31" t="n">
-        <v>1091.815189274411</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="X31" t="n">
-        <v>849.2512927202158</v>
+        <v>935.1356245025422</v>
       </c>
       <c r="Y31" t="n">
-        <v>622.9085244099579</v>
+        <v>708.7928561922843</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1751.66798699898</v>
+        <v>1318.74785963811</v>
       </c>
       <c r="C32" t="n">
-        <v>1324.76725701228</v>
+        <v>891.8471296514097</v>
       </c>
       <c r="D32" t="n">
-        <v>901.47463619728</v>
+        <v>468.55450883641</v>
       </c>
       <c r="E32" t="n">
-        <v>475.4976963451376</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F32" t="n">
-        <v>50.37351453453778</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G32" t="n">
-        <v>50.37351453453778</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H32" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="I32" t="n">
-        <v>86.0934514667285</v>
+        <v>86.09345146672854</v>
       </c>
       <c r="J32" t="n">
-        <v>226.1880352922991</v>
+        <v>226.1880352922992</v>
       </c>
       <c r="K32" t="n">
-        <v>444.3985098873428</v>
+        <v>444.3985098873429</v>
       </c>
       <c r="L32" t="n">
-        <v>721.1044354144763</v>
+        <v>721.1044354144764</v>
       </c>
       <c r="M32" t="n">
         <v>1034.139376672043</v>
       </c>
       <c r="N32" t="n">
-        <v>1352.989294408673</v>
+        <v>1352.989294408674</v>
       </c>
       <c r="O32" t="n">
         <v>1651.903250255482</v>
@@ -6742,10 +6742,10 @@
         <v>2171.51635129051</v>
       </c>
       <c r="X32" t="n">
-        <v>2171.51635129051</v>
+        <v>1759.796352458257</v>
       </c>
       <c r="Y32" t="n">
-        <v>2171.51635129051</v>
+        <v>1738.59622392964</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>954.62808601619</v>
+        <v>598.9534360708841</v>
       </c>
       <c r="C33" t="n">
-        <v>837.1221825336947</v>
+        <v>481.4475325883889</v>
       </c>
       <c r="D33" t="n">
-        <v>733.2822240489797</v>
+        <v>377.6075741036739</v>
       </c>
       <c r="E33" t="n">
-        <v>628.580290321917</v>
+        <v>272.9056403766111</v>
       </c>
       <c r="F33" t="n">
-        <v>534.9344600048212</v>
+        <v>179.2598100595152</v>
       </c>
       <c r="G33" t="n">
-        <v>441.9691191248511</v>
+        <v>86.29446917954513</v>
       </c>
       <c r="H33" t="n">
-        <v>399.1049769711162</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I33" t="n">
-        <v>443.2803626989092</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J33" t="n">
-        <v>738.8717024845728</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K33" t="n">
-        <v>888.9566039719227</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L33" t="n">
-        <v>1098.291688586612</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M33" t="n">
-        <v>1345.721349711886</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N33" t="n">
-        <v>1602.04114251602</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O33" t="n">
-        <v>1832.912960075829</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P33" t="n">
-        <v>2015.066324422021</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q33" t="n">
-        <v>2128.719155173029</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R33" t="n">
-        <v>2171.51635129051</v>
+        <v>1815.841701345204</v>
       </c>
       <c r="S33" t="n">
-        <v>2110.409230482351</v>
+        <v>1754.734580537045</v>
       </c>
       <c r="T33" t="n">
-        <v>1972.916435127965</v>
+        <v>1617.241785182659</v>
       </c>
       <c r="U33" t="n">
-        <v>1788.219846343814</v>
+        <v>1432.545196398508</v>
       </c>
       <c r="V33" t="n">
-        <v>1583.24670748308</v>
+        <v>1227.572057537774</v>
       </c>
       <c r="W33" t="n">
-        <v>1386.725330316297</v>
+        <v>1031.050680370992</v>
       </c>
       <c r="X33" t="n">
-        <v>1223.24798408296</v>
+        <v>867.5733341376545</v>
       </c>
       <c r="Y33" t="n">
-        <v>1083.555095436253</v>
+        <v>727.8804454909468</v>
       </c>
     </row>
     <row r="34">
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.7473559468319</v>
+        <v>625.799957383875</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7747928257479</v>
+        <v>453.827394262791</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7747928257479</v>
+        <v>453.827394262791</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7747928257479</v>
+        <v>287.6191884156445</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7747928257479</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="G34" t="n">
-        <v>43.43032702581019</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="H34" t="n">
-        <v>43.43032702581019</v>
+        <v>115.7574141902049</v>
       </c>
       <c r="I34" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J34" t="n">
-        <v>86.23013562371108</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K34" t="n">
-        <v>345.5622728461723</v>
+        <v>247.303481619848</v>
       </c>
       <c r="L34" t="n">
-        <v>456.827422434113</v>
+        <v>358.5686312077888</v>
       </c>
       <c r="M34" t="n">
-        <v>574.6703931392688</v>
+        <v>889.9470823757663</v>
       </c>
       <c r="N34" t="n">
-        <v>1089.021092194643</v>
+        <v>1404.297781431141</v>
       </c>
       <c r="O34" t="n">
-        <v>1570.860832459528</v>
+        <v>1883.617037032836</v>
       </c>
       <c r="P34" t="n">
         <v>1969.627016373226</v>
@@ -6882,28 +6882,28 @@
         <v>2171.51635129051</v>
       </c>
       <c r="R34" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S34" t="n">
-        <v>2011.274638730567</v>
+        <v>2118.447708634224</v>
       </c>
       <c r="T34" t="n">
-        <v>1771.834171281378</v>
+        <v>1879.007241185034</v>
       </c>
       <c r="U34" t="n">
-        <v>1491.699495722</v>
+        <v>1598.872565625657</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.988028330029</v>
+        <v>1317.161098233686</v>
       </c>
       <c r="W34" t="n">
-        <v>935.1356245025422</v>
+        <v>1042.308694406199</v>
       </c>
       <c r="X34" t="n">
-        <v>692.5717279483473</v>
+        <v>1042.308694406199</v>
       </c>
       <c r="Y34" t="n">
-        <v>570.9133246588975</v>
+        <v>815.9659260959406</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>889.4115236529428</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="C35" t="n">
-        <v>869.027739323791</v>
+        <v>1317.824069503552</v>
       </c>
       <c r="D35" t="n">
-        <v>445.7351185087913</v>
+        <v>894.5314486885525</v>
       </c>
       <c r="E35" t="n">
-        <v>445.7351185087913</v>
+        <v>468.55450883641</v>
       </c>
       <c r="F35" t="n">
-        <v>445.7351185087913</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="G35" t="n">
         <v>43.43032702581019</v>
@@ -6934,19 +6934,19 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I35" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672831</v>
       </c>
       <c r="J35" t="n">
-        <v>226.1880352922992</v>
+        <v>226.188035292299</v>
       </c>
       <c r="K35" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873428</v>
       </c>
       <c r="L35" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144763</v>
       </c>
       <c r="M35" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N35" t="n">
         <v>1352.989294408674</v>
@@ -6964,25 +6964,25 @@
         <v>2171.51635129051</v>
       </c>
       <c r="S35" t="n">
-        <v>2113.505005925657</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="T35" t="n">
-        <v>1901.484455955729</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U35" t="n">
-        <v>1643.292288226346</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="V35" t="n">
-        <v>1285.802873352596</v>
+        <v>1814.026936416759</v>
       </c>
       <c r="W35" t="n">
-        <v>889.4115236529428</v>
+        <v>1814.026936416759</v>
       </c>
       <c r="X35" t="n">
-        <v>889.4115236529428</v>
+        <v>1402.306937584506</v>
       </c>
       <c r="Y35" t="n">
-        <v>889.4115236529428</v>
+        <v>1402.306937584506</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I36" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J36" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K36" t="n">
-        <v>294.61478264856</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L36" t="n">
-        <v>503.9498672632495</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M36" t="n">
-        <v>751.3795283885232</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N36" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O36" t="n">
-        <v>1238.571138752466</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P36" t="n">
-        <v>1420.724503098658</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R36" t="n">
         <v>1815.841701345204</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1090.144475277052</v>
+        <v>380.7473559468319</v>
       </c>
       <c r="C37" t="n">
-        <v>918.171912155968</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="D37" t="n">
-        <v>754.8551392827387</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="E37" t="n">
-        <v>588.6469334355922</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="F37" t="n">
-        <v>416.7851592101527</v>
+        <v>208.7747928257479</v>
       </c>
       <c r="G37" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H37" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I37" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J37" t="n">
-        <v>164.1518522719319</v>
+        <v>86.23013562371108</v>
       </c>
       <c r="K37" t="n">
-        <v>247.3034816198479</v>
+        <v>169.3817649716271</v>
       </c>
       <c r="L37" t="n">
-        <v>734.9575247989537</v>
+        <v>507.421643922498</v>
       </c>
       <c r="M37" t="n">
-        <v>1266.335975966931</v>
+        <v>1038.800095090475</v>
       </c>
       <c r="N37" t="n">
-        <v>1779.479621071154</v>
+        <v>1553.15079414585</v>
       </c>
       <c r="O37" t="n">
-        <v>1883.617037032836</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P37" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q37" t="n">
         <v>2171.51635129051</v>
@@ -7131,16 +7131,16 @@
         <v>1491.699495722</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.699495722</v>
+        <v>1314.672393350837</v>
       </c>
       <c r="W37" t="n">
-        <v>1491.699495722</v>
+        <v>1039.81998952335</v>
       </c>
       <c r="X37" t="n">
-        <v>1316.48724358731</v>
+        <v>797.2560929691555</v>
       </c>
       <c r="Y37" t="n">
-        <v>1090.144475277052</v>
+        <v>570.9133246588975</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1744.724799490252</v>
+        <v>470.3310570125101</v>
       </c>
       <c r="C38" t="n">
-        <v>1317.824069503552</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="D38" t="n">
-        <v>894.5314486885525</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="E38" t="n">
-        <v>468.55450883641</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="F38" t="n">
         <v>43.43032702581019</v>
@@ -7171,25 +7171,25 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I38" t="n">
-        <v>86.09345146672877</v>
+        <v>86.09345146672786</v>
       </c>
       <c r="J38" t="n">
-        <v>226.1880352922992</v>
+        <v>226.1880352922985</v>
       </c>
       <c r="K38" t="n">
-        <v>444.398509887343</v>
+        <v>444.3985098873422</v>
       </c>
       <c r="L38" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144755</v>
       </c>
       <c r="M38" t="n">
-        <v>1034.139376672044</v>
+        <v>1034.139376672043</v>
       </c>
       <c r="N38" t="n">
-        <v>1352.989294408674</v>
+        <v>1352.989294408673</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255481</v>
       </c>
       <c r="P38" t="n">
         <v>1901.41298331237</v>
@@ -7204,22 +7204,22 @@
         <v>2171.51635129051</v>
       </c>
       <c r="T38" t="n">
-        <v>1959.495801320581</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="U38" t="n">
-        <v>1959.495801320581</v>
+        <v>1913.324183561127</v>
       </c>
       <c r="V38" t="n">
-        <v>1959.495801320581</v>
+        <v>1698.290769835946</v>
       </c>
       <c r="W38" t="n">
-        <v>1959.495801320581</v>
+        <v>1301.899420136293</v>
       </c>
       <c r="X38" t="n">
-        <v>1744.724799490252</v>
+        <v>890.1794213040401</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.724799490252</v>
+        <v>890.1794213040401</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>43.43032702581019</v>
       </c>
       <c r="I39" t="n">
-        <v>64.14840690919138</v>
+        <v>87.60571275360323</v>
       </c>
       <c r="J39" t="n">
-        <v>144.5298811612101</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K39" t="n">
-        <v>294.61478264856</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L39" t="n">
-        <v>503.9498672632495</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M39" t="n">
-        <v>751.3795283885232</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N39" t="n">
-        <v>1007.699321192657</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O39" t="n">
-        <v>1238.571138752466</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P39" t="n">
-        <v>1420.724503098658</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R39" t="n">
         <v>1815.841701345204</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>918.171912155968</v>
+        <v>282.0721104367048</v>
       </c>
       <c r="C40" t="n">
-        <v>918.171912155968</v>
+        <v>282.0721104367048</v>
       </c>
       <c r="D40" t="n">
-        <v>754.8551392827387</v>
+        <v>282.0721104367048</v>
       </c>
       <c r="E40" t="n">
-        <v>588.6469334355922</v>
+        <v>282.0721104367048</v>
       </c>
       <c r="F40" t="n">
-        <v>416.7851592101527</v>
+        <v>110.2103362112652</v>
       </c>
       <c r="G40" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="H40" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581019</v>
       </c>
       <c r="I40" t="n">
         <v>43.43032702581019</v>
       </c>
       <c r="J40" t="n">
-        <v>86.23013562371108</v>
+        <v>164.1518522719319</v>
       </c>
       <c r="K40" t="n">
-        <v>169.3817649716271</v>
+        <v>494.58609073387</v>
       </c>
       <c r="L40" t="n">
-        <v>356.0481465445988</v>
+        <v>982.2401339129758</v>
       </c>
       <c r="M40" t="n">
-        <v>887.4265977125763</v>
+        <v>1513.618585080953</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.777296767951</v>
+        <v>1930.853118449053</v>
       </c>
       <c r="O40" t="n">
-        <v>1883.617037032836</v>
+        <v>2034.990534410735</v>
       </c>
       <c r="P40" t="n">
-        <v>1969.627016373226</v>
+        <v>2121.000513751125</v>
       </c>
       <c r="Q40" t="n">
         <v>2171.51635129051</v>
       </c>
       <c r="R40" t="n">
-        <v>2165.507231779829</v>
+        <v>2171.51635129051</v>
       </c>
       <c r="S40" t="n">
-        <v>2165.507231779829</v>
+        <v>2017.283758241249</v>
       </c>
       <c r="T40" t="n">
-        <v>1926.066764330639</v>
+        <v>1777.843290792059</v>
       </c>
       <c r="U40" t="n">
-        <v>1926.066764330639</v>
+        <v>1497.708615232681</v>
       </c>
       <c r="V40" t="n">
-        <v>1644.355296938668</v>
+        <v>1215.99714784071</v>
       </c>
       <c r="W40" t="n">
-        <v>1369.502893111181</v>
+        <v>941.1447440132233</v>
       </c>
       <c r="X40" t="n">
-        <v>1334.680649178292</v>
+        <v>698.5808474590284</v>
       </c>
       <c r="Y40" t="n">
-        <v>1108.337880868034</v>
+        <v>472.2380791487705</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1596.635519068639</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="C41" t="n">
-        <v>1169.734789081939</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="D41" t="n">
-        <v>746.442168266939</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="E41" t="n">
-        <v>320.4652284147966</v>
+        <v>870.8593003193911</v>
       </c>
       <c r="F41" t="n">
-        <v>320.4652284147966</v>
+        <v>445.7351185087913</v>
       </c>
       <c r="G41" t="n">
-        <v>320.4652284147966</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H41" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I41" t="n">
         <v>86.09345146672854</v>
@@ -7435,28 +7435,28 @@
         <v>2080.956330428339</v>
       </c>
       <c r="R41" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S41" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T41" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="U41" t="n">
-        <v>2016.483883360169</v>
+        <v>1913.324183561128</v>
       </c>
       <c r="V41" t="n">
-        <v>2016.483883360169</v>
+        <v>1672.587920064154</v>
       </c>
       <c r="W41" t="n">
-        <v>2016.483883360169</v>
+        <v>1276.196570364501</v>
       </c>
       <c r="X41" t="n">
-        <v>2016.483883360169</v>
+        <v>1276.196570364501</v>
       </c>
       <c r="Y41" t="n">
-        <v>2016.483883360169</v>
+        <v>870.8593003193911</v>
       </c>
     </row>
     <row r="42">
@@ -7481,19 +7481,19 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G42" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H42" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I42" t="n">
-        <v>64.14840690919139</v>
+        <v>64.14840690919141</v>
       </c>
       <c r="J42" t="n">
-        <v>144.5298811612101</v>
+        <v>383.1970525392668</v>
       </c>
       <c r="K42" t="n">
-        <v>294.6147826485601</v>
+        <v>533.2819540266169</v>
       </c>
       <c r="L42" t="n">
         <v>742.6170386413064</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>947.7118843569672</v>
+        <v>276.0629909260246</v>
       </c>
       <c r="C43" t="n">
-        <v>775.7393212358832</v>
+        <v>104.0904278049406</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4225483626539</v>
+        <v>104.0904278049406</v>
       </c>
       <c r="E43" t="n">
-        <v>446.2143425155074</v>
+        <v>104.0904278049406</v>
       </c>
       <c r="F43" t="n">
-        <v>416.7851592101527</v>
+        <v>104.0904278049406</v>
       </c>
       <c r="G43" t="n">
-        <v>251.440693410215</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H43" t="n">
-        <v>115.7574141902049</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I43" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J43" t="n">
-        <v>86.23013562371111</v>
+        <v>164.151852271932</v>
       </c>
       <c r="K43" t="n">
-        <v>169.3817649716271</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L43" t="n">
-        <v>657.0358081507329</v>
+        <v>605.8512403218109</v>
       </c>
       <c r="M43" t="n">
-        <v>1188.41425931871</v>
+        <v>1137.229691489788</v>
       </c>
       <c r="N43" t="n">
-        <v>1466.723416497847</v>
+        <v>1651.580390545163</v>
       </c>
       <c r="O43" t="n">
-        <v>1570.860832459528</v>
+        <v>1755.717806506844</v>
       </c>
       <c r="P43" t="n">
         <v>1969.627016373227</v>
       </c>
       <c r="Q43" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R43" t="n">
         <v>2165.507231779829</v>
       </c>
       <c r="S43" t="n">
-        <v>2165.507231779829</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T43" t="n">
-        <v>1926.06676433064</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="U43" t="n">
-        <v>1645.932088771262</v>
+        <v>1491.699495722001</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.220621379291</v>
+        <v>1209.98802833003</v>
       </c>
       <c r="W43" t="n">
-        <v>1364.220621379291</v>
+        <v>935.1356245025431</v>
       </c>
       <c r="X43" t="n">
-        <v>1364.220621379291</v>
+        <v>692.5717279483482</v>
       </c>
       <c r="Y43" t="n">
-        <v>1137.877853069033</v>
+        <v>466.2289596380903</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1720.128860986533</v>
+        <v>1339.947988166728</v>
       </c>
       <c r="C44" t="n">
-        <v>1720.128860986533</v>
+        <v>913.0472581800279</v>
       </c>
       <c r="D44" t="n">
-        <v>1296.836240171534</v>
+        <v>489.7546373650282</v>
       </c>
       <c r="E44" t="n">
-        <v>870.8593003193911</v>
+        <v>63.77769751288577</v>
       </c>
       <c r="F44" t="n">
-        <v>445.7351185087913</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="G44" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="H44" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I44" t="n">
         <v>86.09345146672854</v>
@@ -7651,10 +7651,10 @@
         <v>226.1880352922992</v>
       </c>
       <c r="K44" t="n">
-        <v>444.3985098873429</v>
+        <v>444.3985098873434</v>
       </c>
       <c r="L44" t="n">
-        <v>721.1044354144765</v>
+        <v>721.1044354144769</v>
       </c>
       <c r="M44" t="n">
         <v>1034.139376672044</v>
@@ -7663,37 +7663,37 @@
         <v>1352.989294408674</v>
       </c>
       <c r="O44" t="n">
-        <v>1651.903250255482</v>
+        <v>1651.903250255483</v>
       </c>
       <c r="P44" t="n">
-        <v>1901.41298331237</v>
+        <v>1901.412983312371</v>
       </c>
       <c r="Q44" t="n">
         <v>2080.956330428339</v>
       </c>
       <c r="R44" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="S44" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="T44" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="U44" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="V44" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="W44" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="X44" t="n">
-        <v>1759.796352458257</v>
+        <v>1759.796352458258</v>
       </c>
       <c r="Y44" t="n">
-        <v>1720.128860986533</v>
+        <v>1759.796352458258</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>179.2598100595152</v>
       </c>
       <c r="G45" t="n">
-        <v>86.29446917954513</v>
+        <v>86.29446917954515</v>
       </c>
       <c r="H45" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="I45" t="n">
-        <v>87.60571275360323</v>
+        <v>87.60571275360324</v>
       </c>
       <c r="J45" t="n">
-        <v>167.9871870056219</v>
+        <v>277.741552254361</v>
       </c>
       <c r="K45" t="n">
-        <v>318.0720884929719</v>
+        <v>427.826453741711</v>
       </c>
       <c r="L45" t="n">
-        <v>527.4071731076615</v>
+        <v>637.1615383564006</v>
       </c>
       <c r="M45" t="n">
-        <v>774.8368342329352</v>
+        <v>884.5911994816743</v>
       </c>
       <c r="N45" t="n">
-        <v>1031.156627037069</v>
+        <v>1140.910992285808</v>
       </c>
       <c r="O45" t="n">
-        <v>1262.028444596878</v>
+        <v>1371.782809845618</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.181808943071</v>
+        <v>1553.93617419181</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.044505227723</v>
+        <v>1667.589004942817</v>
       </c>
       <c r="R45" t="n">
         <v>1815.841701345204</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.7451709351558</v>
+        <v>1090.144475277052</v>
       </c>
       <c r="C46" t="n">
-        <v>503.7726078140718</v>
+        <v>918.1719121559681</v>
       </c>
       <c r="D46" t="n">
-        <v>340.4558349408425</v>
+        <v>754.8551392827388</v>
       </c>
       <c r="E46" t="n">
-        <v>340.4558349408425</v>
+        <v>588.6469334355924</v>
       </c>
       <c r="F46" t="n">
-        <v>340.4558349408425</v>
+        <v>416.7851592101528</v>
       </c>
       <c r="G46" t="n">
-        <v>175.1113691409048</v>
+        <v>251.440693410215</v>
       </c>
       <c r="H46" t="n">
-        <v>115.7574141902049</v>
+        <v>115.757414190205</v>
       </c>
       <c r="I46" t="n">
-        <v>43.4303270258102</v>
+        <v>43.43032702581021</v>
       </c>
       <c r="J46" t="n">
         <v>164.151852271932</v>
       </c>
       <c r="K46" t="n">
-        <v>330.0597152252309</v>
+        <v>494.5860907338701</v>
       </c>
       <c r="L46" t="n">
-        <v>441.3248648131718</v>
+        <v>605.8512403218109</v>
       </c>
       <c r="M46" t="n">
-        <v>972.7033159811492</v>
+        <v>1137.229691489788</v>
       </c>
       <c r="N46" t="n">
-        <v>1089.021092194643</v>
+        <v>1651.580390545163</v>
       </c>
       <c r="O46" t="n">
-        <v>1570.860832459528</v>
+        <v>1755.717806506844</v>
       </c>
       <c r="P46" t="n">
         <v>1969.627016373227</v>
       </c>
       <c r="Q46" t="n">
-        <v>2171.51635129051</v>
+        <v>2171.516351290511</v>
       </c>
       <c r="R46" t="n">
-        <v>2171.51635129051</v>
+        <v>2165.507231779829</v>
       </c>
       <c r="S46" t="n">
-        <v>2171.51635129051</v>
+        <v>2011.274638730568</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.51635129051</v>
+        <v>1771.834171281379</v>
       </c>
       <c r="U46" t="n">
-        <v>1891.381675731132</v>
+        <v>1749.217108853571</v>
       </c>
       <c r="V46" t="n">
-        <v>1609.670208339161</v>
+        <v>1749.217108853571</v>
       </c>
       <c r="W46" t="n">
-        <v>1334.817804511674</v>
+        <v>1749.217108853571</v>
       </c>
       <c r="X46" t="n">
-        <v>1092.253907957479</v>
+        <v>1506.653212299376</v>
       </c>
       <c r="Y46" t="n">
-        <v>865.9111396472215</v>
+        <v>1280.310443989118</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>241.0779508869263</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>241.0779508869256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>230.392080883807</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>330.2331531337407</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>241.0779508869263</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>110.8629952007465</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9099,10 +9099,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>230.3920808838066</v>
       </c>
       <c r="P16" t="n">
-        <v>230.3920808838066</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>241.0779508869264</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>134.5572435284352</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>253.4805245618803</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>331.5598508226683</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>217.3837025592376</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0779508869264</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>215.3292412066307</v>
+        <v>187.2489049861869</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>134.5572435284357</v>
+        <v>110.862995200747</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>76.1628605909404</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.373413626465805</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>241.0779508869263</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>229.0653831948789</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>187.8783834205719</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K30" t="n">
-        <v>217.3837025592376</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.08221832163858</v>
+        <v>150.3565784997062</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>217.3837025592373</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>177.9601089641871</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>378.9715551919327</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>241.0779508869264</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>229.0653831948789</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>400.8342110007361</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>110.8629952007466</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>241.0779508869264</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>76.16286059094037</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>303.9563203581875</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>241.077950886926</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>241.077950886926</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>163.6276575410528</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>129.1911419454466</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>110.8629952007465</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>217.3837025592372</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>83.5921551569525</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11466,13 +11466,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>129.1911419454466</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>210.3901354581296</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H11" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>258.9000050513876</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.6910211419383</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.949028315574161</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>104.1406283962725</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.80074628773454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>149.8879022790853</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.4312319112042</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>257.6566339692193</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>80.3015951090745</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.949028315574175</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3333288037839</v>
       </c>
       <c r="V16" t="n">
-        <v>109.5204286709759</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>165.1083603817799</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.2817435681513</v>
       </c>
       <c r="H17" t="n">
-        <v>274.2645523750966</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.43123191120421</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>271.0302055631307</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>40.16987642451045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.60381629275081</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>33.64242026513219</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.0265888365886</v>
       </c>
       <c r="U20" t="n">
         <v>255.6102460520883</v>
@@ -24031,10 +24031,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>17.32260246920293</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24135,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>181.6934730045971</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>159.4324489244087</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H23" t="n">
-        <v>36.13869845808696</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.43123191120421</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.9003444702288</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>100.4181861512664</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>158.6131926609825</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>110.089656711847</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>331.8048658325097</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H26" t="n">
         <v>274.2645523750966</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>386.3630599063339</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H28" t="n">
-        <v>55.04375416767243</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.6902671187685</v>
       </c>
       <c r="T28" t="n">
         <v>237.0460627746974</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>252.5133184721135</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>250.0226596609928</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>260.2019792872778</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.42952650250795</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6910211419383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.3264464278099</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.949028315574175</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>149.1637408085751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>398.2817435681513</v>
       </c>
       <c r="H32" t="n">
-        <v>267.3907967414563</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T32" t="n">
         <v>209.9003444702288</v>
@@ -24982,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>380.2957701013274</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6910211419383</v>
       </c>
       <c r="H34" t="n">
         <v>134.3264464278099</v>
       </c>
       <c r="I34" t="n">
-        <v>71.60381629275079</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>100.1523108890452</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.6375213706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>332.0118412484701</v>
       </c>
       <c r="C35" t="n">
-        <v>402.4517762009726</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H35" t="n">
         <v>274.2645523750966</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6102460520883</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>103.6375213706</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>66.67812797530931</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.2817435681513</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.43123191120421</v>
+        <v>57.4312319112042</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.9003444702288</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6102460520883</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>141.0314411370834</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>194.9795070319041</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25554,22 +25554,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.57881204833782</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.949028315574168</v>
       </c>
       <c r="S40" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3333288037839</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>205.6642360950923</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2817435681513</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.2645523750966</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>209.9003444702288</v>
       </c>
       <c r="U41" t="n">
-        <v>102.1281028010502</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>115.5856198630082</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>141.008265010884</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>103.6375213705992</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.3264464278099</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.60381629275079</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>400.7290432102889</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2817435681513</v>
       </c>
       <c r="H44" t="n">
         <v>274.2645523750966</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>362.0130807876517</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.56603102661711</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.949028315574168</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.6902671187685</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0460627746974</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>254.9424370002536</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349730.7184025719</v>
+        <v>349730.7184025717</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349730.7184025719</v>
+        <v>349730.7184025718</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>349730.7184025717</v>
+        <v>349730.7184025719</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349730.7184025718</v>
+        <v>349730.7184025719</v>
       </c>
     </row>
     <row r="11">
@@ -26322,7 +26322,7 @@
         <v>459015.5359796918</v>
       </c>
       <c r="E2" t="n">
-        <v>275752.1503044605</v>
+        <v>275752.1503044603</v>
       </c>
       <c r="F2" t="n">
         <v>275752.1503044604</v>
@@ -26331,22 +26331,22 @@
         <v>275752.1503044604</v>
       </c>
       <c r="H2" t="n">
-        <v>275752.1503044606</v>
+        <v>275752.1503044603</v>
       </c>
       <c r="I2" t="n">
-        <v>275752.1503044605</v>
+        <v>275752.1503044604</v>
       </c>
       <c r="J2" t="n">
-        <v>275752.1503044605</v>
+        <v>275752.1503044604</v>
       </c>
       <c r="K2" t="n">
-        <v>275752.1503044606</v>
+        <v>275752.1503044604</v>
       </c>
       <c r="L2" t="n">
+        <v>275752.1503044604</v>
+      </c>
+      <c r="M2" t="n">
         <v>275752.1503044603</v>
-      </c>
-      <c r="M2" t="n">
-        <v>275752.1503044604</v>
       </c>
       <c r="N2" t="n">
         <v>275752.1503044604</v>
@@ -26355,7 +26355,7 @@
         <v>275752.1503044604</v>
       </c>
       <c r="P2" t="n">
-        <v>275752.1503044605</v>
+        <v>275752.1503044604</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>32673.69813039072</v>
       </c>
       <c r="E3" t="n">
-        <v>533917.0150263608</v>
+        <v>533917.0150263605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135287.6402017501</v>
+        <v>135287.64020175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>312967.273340861</v>
       </c>
       <c r="E4" t="n">
-        <v>22722.94893782048</v>
+        <v>22722.94893782049</v>
       </c>
       <c r="F4" t="n">
         <v>22722.94893782049</v>
       </c>
       <c r="G4" t="n">
-        <v>22722.94893782048</v>
+        <v>22722.94893782049</v>
       </c>
       <c r="H4" t="n">
-        <v>22722.9489378205</v>
+        <v>22722.94893782049</v>
       </c>
       <c r="I4" t="n">
         <v>22722.94893782049</v>
       </c>
       <c r="J4" t="n">
-        <v>22722.94893782049</v>
+        <v>22722.94893782048</v>
       </c>
       <c r="K4" t="n">
         <v>22722.94893782048</v>
@@ -26450,16 +26450,16 @@
         <v>22722.94893782048</v>
       </c>
       <c r="M4" t="n">
-        <v>22722.94893782049</v>
+        <v>22722.94893782048</v>
       </c>
       <c r="N4" t="n">
-        <v>22722.94893782049</v>
+        <v>22722.94893782048</v>
       </c>
       <c r="O4" t="n">
         <v>22722.94893782049</v>
       </c>
       <c r="P4" t="n">
-        <v>22722.94893782048</v>
+        <v>22722.94893782049</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>34459.30828506134</v>
       </c>
       <c r="E5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="F5" t="n">
         <v>43928.07778537245</v>
@@ -26487,7 +26487,7 @@
         <v>43928.07778537245</v>
       </c>
       <c r="H5" t="n">
-        <v>43928.07778537246</v>
+        <v>43928.07778537245</v>
       </c>
       <c r="I5" t="n">
         <v>43928.07778537245</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100675.5393834004</v>
+        <v>100653.825741904</v>
       </c>
       <c r="C6" t="n">
-        <v>100675.5393834003</v>
+        <v>100653.825741904</v>
       </c>
       <c r="D6" t="n">
-        <v>78915.25622337882</v>
+        <v>78893.57310328739</v>
       </c>
       <c r="E6" t="n">
-        <v>-324815.8914450931</v>
+        <v>-325410.2726454196</v>
       </c>
       <c r="F6" t="n">
-        <v>209101.1235812677</v>
+        <v>208506.742380941</v>
       </c>
       <c r="G6" t="n">
-        <v>209101.1235812675</v>
+        <v>208506.742380941</v>
       </c>
       <c r="H6" t="n">
-        <v>209101.1235812677</v>
+        <v>208506.7423809409</v>
       </c>
       <c r="I6" t="n">
-        <v>209101.1235812676</v>
+        <v>208506.742380941</v>
       </c>
       <c r="J6" t="n">
-        <v>209101.1235812676</v>
+        <v>208506.742380941</v>
       </c>
       <c r="K6" t="n">
-        <v>209101.1235812677</v>
+        <v>208506.742380941</v>
       </c>
       <c r="L6" t="n">
-        <v>209101.1235812674</v>
+        <v>208506.742380941</v>
       </c>
       <c r="M6" t="n">
-        <v>73813.48337951742</v>
+        <v>73219.10217919089</v>
       </c>
       <c r="N6" t="n">
-        <v>209101.1235812674</v>
+        <v>208506.7423809411</v>
       </c>
       <c r="O6" t="n">
-        <v>209101.1235812675</v>
+        <v>208506.742380941</v>
       </c>
       <c r="P6" t="n">
-        <v>209101.1235812675</v>
+        <v>208506.742380941</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>500.9646443007664</v>
+        <v>500.9646443007662</v>
       </c>
       <c r="F3" t="n">
+        <v>500.9646443007662</v>
+      </c>
+      <c r="G3" t="n">
+        <v>500.9646443007662</v>
+      </c>
+      <c r="H3" t="n">
         <v>500.9646443007663</v>
-      </c>
-      <c r="G3" t="n">
-        <v>500.9646443007663</v>
-      </c>
-      <c r="H3" t="n">
-        <v>500.9646443007662</v>
       </c>
       <c r="I3" t="n">
         <v>500.9646443007662</v>
       </c>
       <c r="J3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="K3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="N3" t="n">
-        <v>500.9646443007662</v>
+        <v>500.9646443007663</v>
       </c>
       <c r="O3" t="n">
         <v>500.9646443007663</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="F4" t="n">
         <v>542.8790878226274</v>
@@ -26807,7 +26807,7 @@
         <v>542.8790878226274</v>
       </c>
       <c r="H4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="I4" t="n">
         <v>542.8790878226274</v>
@@ -26828,10 +26828,10 @@
         <v>542.8790878226274</v>
       </c>
       <c r="O4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226276</v>
       </c>
       <c r="P4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226276</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="E3" t="n">
-        <v>462.8128881052924</v>
+        <v>462.8128881052922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.8790878226275</v>
+        <v>542.8790878226274</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H11" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I11" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J11" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K11" t="n">
-        <v>256.1792215978839</v>
+        <v>256.1792215978838</v>
       </c>
       <c r="L11" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M11" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N11" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O11" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P11" t="n">
-        <v>289.6053952010275</v>
+        <v>289.6053952010274</v>
       </c>
       <c r="Q11" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R11" t="n">
         <v>126.5074184424443</v>
       </c>
       <c r="S11" t="n">
-        <v>45.8923892743868</v>
+        <v>45.89238927438679</v>
       </c>
       <c r="T11" t="n">
-        <v>8.81597077558434</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U11" t="n">
         <v>0.1611142574635629</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.077546593401649</v>
+        <v>1.077546593401648</v>
       </c>
       <c r="H12" t="n">
         <v>10.40683157311592</v>
       </c>
       <c r="I12" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J12" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K12" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L12" t="n">
-        <v>233.964667133108</v>
+        <v>233.9646671331079</v>
       </c>
       <c r="M12" t="n">
-        <v>273.0257311439177</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N12" t="n">
-        <v>280.2519098338788</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O12" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P12" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q12" t="n">
-        <v>137.5478774314105</v>
+        <v>137.5478774314104</v>
       </c>
       <c r="R12" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S12" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T12" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9033788667718737</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H13" t="n">
-        <v>8.031859379117211</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I13" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J13" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K13" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L13" t="n">
         <v>134.3077998835202</v>
@@ -31934,25 +31934,25 @@
         <v>138.2416042215542</v>
       </c>
       <c r="O13" t="n">
-        <v>127.6884965506282</v>
+        <v>127.6884965506281</v>
       </c>
       <c r="P13" t="n">
         <v>109.2595676684818</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.64566128941573</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R13" t="n">
-        <v>40.61919886412442</v>
+        <v>40.61919886412441</v>
       </c>
       <c r="S13" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T13" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04927521091482953</v>
+        <v>0.04927521091482952</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H14" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I14" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J14" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K14" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L14" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M14" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N14" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O14" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901738</v>
       </c>
       <c r="P14" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q14" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R14" t="n">
         <v>126.5074184424443</v>
@@ -32028,7 +32028,7 @@
         <v>45.89238927438679</v>
       </c>
       <c r="T14" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584336</v>
       </c>
       <c r="U14" t="n">
         <v>0.1611142574635629</v>
@@ -32074,43 +32074,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I15" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J15" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K15" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L15" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M15" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N15" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O15" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P15" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q15" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R15" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190236</v>
       </c>
       <c r="S15" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T15" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456642</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010846</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718734</v>
       </c>
       <c r="H16" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117208</v>
       </c>
       <c r="I16" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J16" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K16" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L16" t="n">
         <v>134.3077998835202</v>
@@ -32177,7 +32177,7 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.64566128941571</v>
+        <v>75.6456612894157</v>
       </c>
       <c r="R16" t="n">
         <v>40.61919886412441</v>
@@ -32186,7 +32186,7 @@
         <v>15.74342988728801</v>
       </c>
       <c r="T16" t="n">
-        <v>3.859891521661641</v>
+        <v>3.85989152166164</v>
       </c>
       <c r="U16" t="n">
         <v>0.04927521091482952</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.013928218294537</v>
+        <v>2.013928218294536</v>
       </c>
       <c r="H17" t="n">
-        <v>20.62514236560893</v>
+        <v>20.62514236560892</v>
       </c>
       <c r="I17" t="n">
-        <v>77.6419676358002</v>
+        <v>77.64196763580017</v>
       </c>
       <c r="J17" t="n">
-        <v>170.9296401174761</v>
+        <v>170.929640117476</v>
       </c>
       <c r="K17" t="n">
         <v>256.1792215978838</v>
       </c>
       <c r="L17" t="n">
-        <v>317.8129773085154</v>
+        <v>317.8129773085153</v>
       </c>
       <c r="M17" t="n">
-        <v>353.6281732606108</v>
+        <v>353.6281732606107</v>
       </c>
       <c r="N17" t="n">
-        <v>359.3502468108402</v>
+        <v>359.3502468108401</v>
       </c>
       <c r="O17" t="n">
-        <v>339.3242480901739</v>
+        <v>339.3242480901737</v>
       </c>
       <c r="P17" t="n">
         <v>289.6053952010274</v>
       </c>
       <c r="Q17" t="n">
-        <v>217.4815908833543</v>
+        <v>217.4815908833542</v>
       </c>
       <c r="R17" t="n">
-        <v>126.5074184424443</v>
+        <v>126.5074184424442</v>
       </c>
       <c r="S17" t="n">
-        <v>45.89238927438679</v>
+        <v>45.89238927438678</v>
       </c>
       <c r="T17" t="n">
-        <v>8.815970775584338</v>
+        <v>8.815970775584335</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1611142574635629</v>
+        <v>0.1611142574635628</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.40683157311592</v>
       </c>
       <c r="I18" t="n">
-        <v>37.09974016755676</v>
+        <v>37.09974016755675</v>
       </c>
       <c r="J18" t="n">
-        <v>101.8045226687058</v>
+        <v>101.8045226687057</v>
       </c>
       <c r="K18" t="n">
-        <v>174.0001444266162</v>
+        <v>174.0001444266161</v>
       </c>
       <c r="L18" t="n">
-        <v>233.9646671331079</v>
+        <v>233.9646671331078</v>
       </c>
       <c r="M18" t="n">
-        <v>273.0257311439176</v>
+        <v>273.0257311439175</v>
       </c>
       <c r="N18" t="n">
-        <v>280.2519098338787</v>
+        <v>280.2519098338786</v>
       </c>
       <c r="O18" t="n">
-        <v>256.3757458432422</v>
+        <v>256.3757458432421</v>
       </c>
       <c r="P18" t="n">
-        <v>205.7641385242148</v>
+        <v>205.7641385242147</v>
       </c>
       <c r="Q18" t="n">
         <v>137.5478774314104</v>
       </c>
       <c r="R18" t="n">
-        <v>66.90241042190237</v>
+        <v>66.90241042190235</v>
       </c>
       <c r="S18" t="n">
-        <v>20.01495536428061</v>
+        <v>20.0149553642806</v>
       </c>
       <c r="T18" t="n">
-        <v>4.343268944456643</v>
+        <v>4.343268944456641</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07089122325010848</v>
+        <v>0.07089122325010845</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9033788667718736</v>
+        <v>0.9033788667718733</v>
       </c>
       <c r="H19" t="n">
-        <v>8.031859379117209</v>
+        <v>8.031859379117206</v>
       </c>
       <c r="I19" t="n">
-        <v>27.16706628437599</v>
+        <v>27.16706628437598</v>
       </c>
       <c r="J19" t="n">
-        <v>63.86888588077147</v>
+        <v>63.86888588077144</v>
       </c>
       <c r="K19" t="n">
-        <v>104.9561992485868</v>
+        <v>104.9561992485867</v>
       </c>
       <c r="L19" t="n">
         <v>134.3077998835202</v>
@@ -32405,7 +32405,7 @@
         <v>141.6087436340674</v>
       </c>
       <c r="N19" t="n">
-        <v>138.2416042215542</v>
+        <v>138.2416042215541</v>
       </c>
       <c r="O19" t="n">
         <v>127.6884965506281</v>
@@ -32414,19 +32414,19 @@
         <v>109.2595676684818</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.64566128941571</v>
+        <v>75.64566128941568</v>
       </c>
       <c r="R19" t="n">
-        <v>40.61919886412441</v>
+        <v>40.6191988641244</v>
       </c>
       <c r="S19" t="n">
         <v>15.74342988728801</v>
       </c>
       <c r="T19" t="n">
-        <v>3.859891521661641</v>
+        <v>3.859891521661639</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04927521091482952</v>
+        <v>0.04927521091482951</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>2.013928218294536</v>
       </c>
       <c r="H20" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I20" t="n">
-        <v>77.64196763580017</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J20" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K20" t="n">
         <v>256.1792215978838</v>
@@ -32481,7 +32481,7 @@
         <v>317.8129773085153</v>
       </c>
       <c r="M20" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N20" t="n">
         <v>359.3502468108401</v>
@@ -32554,22 +32554,22 @@
         <v>101.8045226687057</v>
       </c>
       <c r="K21" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L21" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M21" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N21" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O21" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P21" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q21" t="n">
         <v>137.5478774314104</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H22" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I22" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J22" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K22" t="n">
         <v>104.9561992485867</v>
@@ -32940,13 +32940,13 @@
         <v>2.013928218294536</v>
       </c>
       <c r="H26" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I26" t="n">
-        <v>77.64196763580017</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J26" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K26" t="n">
         <v>256.1792215978838</v>
@@ -32955,7 +32955,7 @@
         <v>317.8129773085153</v>
       </c>
       <c r="M26" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N26" t="n">
         <v>359.3502468108401</v>
@@ -33028,22 +33028,22 @@
         <v>101.8045226687057</v>
       </c>
       <c r="K27" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L27" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M27" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N27" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O27" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P27" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q27" t="n">
         <v>137.5478774314104</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H28" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I28" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J28" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K28" t="n">
         <v>104.9561992485867</v>
@@ -33177,13 +33177,13 @@
         <v>2.013928218294536</v>
       </c>
       <c r="H29" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I29" t="n">
-        <v>77.64196763580017</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J29" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K29" t="n">
         <v>256.1792215978838</v>
@@ -33192,7 +33192,7 @@
         <v>317.8129773085153</v>
       </c>
       <c r="M29" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N29" t="n">
         <v>359.3502468108401</v>
@@ -33265,22 +33265,22 @@
         <v>101.8045226687057</v>
       </c>
       <c r="K30" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L30" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M30" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N30" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O30" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P30" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q30" t="n">
         <v>137.5478774314104</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H31" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I31" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J31" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K31" t="n">
         <v>104.9561992485867</v>
@@ -33414,13 +33414,13 @@
         <v>2.013928218294536</v>
       </c>
       <c r="H32" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I32" t="n">
-        <v>77.64196763580017</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J32" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K32" t="n">
         <v>256.1792215978838</v>
@@ -33429,7 +33429,7 @@
         <v>317.8129773085153</v>
       </c>
       <c r="M32" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N32" t="n">
         <v>359.3502468108401</v>
@@ -33502,22 +33502,22 @@
         <v>101.8045226687057</v>
       </c>
       <c r="K33" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L33" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M33" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N33" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O33" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P33" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q33" t="n">
         <v>137.5478774314104</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H34" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I34" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J34" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K34" t="n">
         <v>104.9561992485867</v>
@@ -33651,13 +33651,13 @@
         <v>2.013928218294536</v>
       </c>
       <c r="H35" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I35" t="n">
-        <v>77.64196763580017</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J35" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K35" t="n">
         <v>256.1792215978838</v>
@@ -33666,7 +33666,7 @@
         <v>317.8129773085153</v>
       </c>
       <c r="M35" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N35" t="n">
         <v>359.3502468108401</v>
@@ -33739,22 +33739,22 @@
         <v>101.8045226687057</v>
       </c>
       <c r="K36" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L36" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M36" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N36" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O36" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P36" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q36" t="n">
         <v>137.5478774314104</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H37" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I37" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J37" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K37" t="n">
         <v>104.9561992485867</v>
@@ -33888,13 +33888,13 @@
         <v>2.013928218294536</v>
       </c>
       <c r="H38" t="n">
-        <v>20.62514236560892</v>
+        <v>20.62514236560893</v>
       </c>
       <c r="I38" t="n">
-        <v>77.64196763580017</v>
+        <v>77.64196763580019</v>
       </c>
       <c r="J38" t="n">
-        <v>170.929640117476</v>
+        <v>170.9296401174761</v>
       </c>
       <c r="K38" t="n">
         <v>256.1792215978838</v>
@@ -33903,7 +33903,7 @@
         <v>317.8129773085153</v>
       </c>
       <c r="M38" t="n">
-        <v>353.6281732606107</v>
+        <v>353.6281732606108</v>
       </c>
       <c r="N38" t="n">
         <v>359.3502468108401</v>
@@ -33976,22 +33976,22 @@
         <v>101.8045226687057</v>
       </c>
       <c r="K39" t="n">
-        <v>174.0001444266161</v>
+        <v>174.0001444266162</v>
       </c>
       <c r="L39" t="n">
         <v>233.9646671331079</v>
       </c>
       <c r="M39" t="n">
-        <v>273.0257311439175</v>
+        <v>273.0257311439176</v>
       </c>
       <c r="N39" t="n">
-        <v>280.2519098338786</v>
+        <v>280.2519098338787</v>
       </c>
       <c r="O39" t="n">
-        <v>256.3757458432421</v>
+        <v>256.3757458432422</v>
       </c>
       <c r="P39" t="n">
-        <v>205.7641385242147</v>
+        <v>205.7641385242148</v>
       </c>
       <c r="Q39" t="n">
         <v>137.5478774314104</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9033788667718734</v>
+        <v>0.9033788667718735</v>
       </c>
       <c r="H40" t="n">
-        <v>8.031859379117208</v>
+        <v>8.031859379117209</v>
       </c>
       <c r="I40" t="n">
-        <v>27.16706628437598</v>
+        <v>27.16706628437599</v>
       </c>
       <c r="J40" t="n">
-        <v>63.86888588077144</v>
+        <v>63.86888588077145</v>
       </c>
       <c r="K40" t="n">
         <v>104.9561992485867</v>
@@ -34371,7 +34371,7 @@
         <v>170.9296401174761</v>
       </c>
       <c r="K44" t="n">
-        <v>256.1792215978838</v>
+        <v>256.1792215978844</v>
       </c>
       <c r="L44" t="n">
         <v>317.8129773085154</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J11" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K11" t="n">
-        <v>220.4146208030746</v>
+        <v>220.4146208030745</v>
       </c>
       <c r="L11" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M11" t="n">
-        <v>316.196910361179</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O11" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P11" t="n">
-        <v>252.0300333907962</v>
+        <v>252.0300333907961</v>
       </c>
       <c r="Q11" t="n">
-        <v>181.3569162787563</v>
+        <v>181.3569162787562</v>
       </c>
       <c r="R11" t="n">
-        <v>91.47476854764784</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.92735341755676</v>
+        <v>20.92735341755675</v>
       </c>
       <c r="J12" t="n">
-        <v>81.19340833537242</v>
+        <v>322.2713592222987</v>
       </c>
       <c r="K12" t="n">
-        <v>151.6009105932829</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L12" t="n">
-        <v>452.527531305804</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M12" t="n">
-        <v>249.9289506315897</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N12" t="n">
-        <v>258.9088816203371</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O12" t="n">
-        <v>233.20385612102</v>
+        <v>233.2038561210199</v>
       </c>
       <c r="P12" t="n">
-        <v>183.9932973193862</v>
+        <v>183.9932973193861</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.800839142432</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R12" t="n">
-        <v>43.22949102775823</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.23212989686961</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K13" t="n">
-        <v>314.3836256796817</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L13" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M13" t="n">
-        <v>536.7459102706844</v>
+        <v>449.2664568763223</v>
       </c>
       <c r="N13" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459538</v>
       </c>
       <c r="O13" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P13" t="n">
-        <v>86.87876701049537</v>
+        <v>402.7941251653515</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.02609852463078</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J14" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K14" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L14" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M14" t="n">
         <v>316.1969103611789</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O14" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341497</v>
       </c>
       <c r="P14" t="n">
         <v>252.0300333907961</v>
@@ -35670,7 +35670,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R14" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.62160174524548</v>
+        <v>20.92735341755675</v>
       </c>
       <c r="J15" t="n">
-        <v>81.19340833537242</v>
+        <v>322.2713592222987</v>
       </c>
       <c r="K15" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L15" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M15" t="n">
         <v>249.9289506315896</v>
       </c>
       <c r="N15" t="n">
-        <v>369.7718768210835</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O15" t="n">
         <v>233.2038561210199</v>
@@ -35749,7 +35749,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R15" t="n">
-        <v>149.7501983862489</v>
+        <v>43.22949102775821</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.23212989686959</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K16" t="n">
-        <v>83.99154479587476</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L16" t="n">
         <v>492.5798415950563</v>
@@ -35819,13 +35819,13 @@
         <v>519.5461606619943</v>
       </c>
       <c r="O16" t="n">
-        <v>105.1893090522037</v>
+        <v>335.5813899360103</v>
       </c>
       <c r="P16" t="n">
-        <v>317.2708478943019</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.02609852463077</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.0940650918367</v>
+        <v>43.09406509183667</v>
       </c>
       <c r="J17" t="n">
-        <v>141.5096806318896</v>
+        <v>141.5096806318895</v>
       </c>
       <c r="K17" t="n">
         <v>220.4146208030745</v>
       </c>
       <c r="L17" t="n">
-        <v>279.5009348758924</v>
+        <v>279.5009348758923</v>
       </c>
       <c r="M17" t="n">
-        <v>316.1969103611789</v>
+        <v>316.1969103611788</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0706239763942</v>
+        <v>322.0706239763941</v>
       </c>
       <c r="O17" t="n">
-        <v>301.9332887341498</v>
+        <v>301.9332887341496</v>
       </c>
       <c r="P17" t="n">
         <v>252.0300333907961</v>
@@ -35907,7 +35907,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R17" t="n">
-        <v>91.47476854764781</v>
+        <v>91.47476854764778</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.92735341755676</v>
+        <v>20.92735341755674</v>
       </c>
       <c r="J18" t="n">
-        <v>81.19340833537242</v>
+        <v>322.2713592222988</v>
       </c>
       <c r="K18" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L18" t="n">
-        <v>211.4495804188784</v>
+        <v>211.4495804188783</v>
       </c>
       <c r="M18" t="n">
-        <v>384.4861941600249</v>
+        <v>249.9289506315896</v>
       </c>
       <c r="N18" t="n">
         <v>258.908881620337</v>
@@ -35980,13 +35980,13 @@
         <v>233.2038561210199</v>
       </c>
       <c r="P18" t="n">
-        <v>183.9932973193861</v>
+        <v>183.993297319386</v>
       </c>
       <c r="Q18" t="n">
         <v>114.8008391424319</v>
       </c>
       <c r="R18" t="n">
-        <v>149.7501983862489</v>
+        <v>43.2294910277582</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686957</v>
       </c>
       <c r="K19" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423616</v>
       </c>
       <c r="L19" t="n">
         <v>492.5798415950563</v>
       </c>
       <c r="M19" t="n">
-        <v>372.5138283044619</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N19" t="n">
-        <v>519.5461606619943</v>
+        <v>117.4927032459537</v>
       </c>
       <c r="O19" t="n">
-        <v>105.1893090522037</v>
+        <v>436.749159874872</v>
       </c>
       <c r="P19" t="n">
         <v>402.7941251653515</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.02609852463077</v>
+        <v>203.9286211285691</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.09406509183667</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J20" t="n">
         <v>141.5096806318895</v>
@@ -36126,7 +36126,7 @@
         <v>220.4146208030745</v>
       </c>
       <c r="L20" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M20" t="n">
         <v>316.1969103611789</v>
@@ -36144,7 +36144,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R20" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J21" t="n">
-        <v>81.1934083353724</v>
+        <v>298.57711089461</v>
       </c>
       <c r="K21" t="n">
         <v>151.6009105932828</v>
@@ -36211,7 +36211,7 @@
         <v>249.9289506315896</v>
       </c>
       <c r="N21" t="n">
-        <v>499.9868325072633</v>
+        <v>258.908881620337</v>
       </c>
       <c r="O21" t="n">
         <v>233.2038561210199</v>
@@ -36284,19 +36284,19 @@
         <v>333.7719580423617</v>
       </c>
       <c r="L22" t="n">
-        <v>112.389039987819</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M22" t="n">
-        <v>536.7459102706844</v>
+        <v>119.0333037425816</v>
       </c>
       <c r="N22" t="n">
-        <v>332.8219444525845</v>
+        <v>304.7416082321406</v>
       </c>
       <c r="O22" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P22" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q22" t="n">
         <v>203.9286211285692</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J24" t="n">
         <v>81.1934083353724</v>
@@ -36457,7 +36457,7 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q24" t="n">
-        <v>249.3580826708676</v>
+        <v>225.6638343431788</v>
       </c>
       <c r="R24" t="n">
         <v>149.7501983862489</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>121.9409345920422</v>
+        <v>119.39499048781</v>
       </c>
       <c r="K25" t="n">
-        <v>333.7719580423617</v>
+        <v>83.99154479587473</v>
       </c>
       <c r="L25" t="n">
         <v>112.389039987819</v>
       </c>
       <c r="M25" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N25" t="n">
         <v>519.5461606619943</v>
@@ -36533,10 +36533,10 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P25" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049532</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.39951215109656</v>
+        <v>203.9286211285692</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.09406509183667</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J26" t="n">
         <v>141.5096806318895</v>
@@ -36600,7 +36600,7 @@
         <v>220.4146208030745</v>
       </c>
       <c r="L26" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M26" t="n">
         <v>316.1969103611789</v>
@@ -36609,7 +36609,7 @@
         <v>322.0706239763941</v>
       </c>
       <c r="O26" t="n">
-        <v>301.9332887341497</v>
+        <v>301.9332887341495</v>
       </c>
       <c r="P26" t="n">
         <v>252.0300333907961</v>
@@ -36618,7 +36618,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R26" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J27" t="n">
-        <v>81.1934083353724</v>
+        <v>81.19340833537241</v>
       </c>
       <c r="K27" t="n">
-        <v>392.6788614802092</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L27" t="n">
         <v>211.4495804188783</v>
@@ -36694,10 +36694,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q27" t="n">
-        <v>114.8008391424319</v>
+        <v>225.6638343431784</v>
       </c>
       <c r="R27" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K28" t="n">
-        <v>83.99154479587473</v>
+        <v>83.99154479587474</v>
       </c>
       <c r="L28" t="n">
-        <v>492.5798415950563</v>
+        <v>341.4544231826979</v>
       </c>
       <c r="M28" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N28" t="n">
         <v>519.5461606619943</v>
@@ -36770,7 +36770,7 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P28" t="n">
-        <v>274.7571504310673</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q28" t="n">
         <v>51.02609852463075</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.09406509183667</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J29" t="n">
         <v>141.5096806318895</v>
       </c>
       <c r="K29" t="n">
-        <v>220.4146208030745</v>
+        <v>220.4146208030742</v>
       </c>
       <c r="L29" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M29" t="n">
         <v>316.1969103611789</v>
@@ -36855,7 +36855,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R29" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>44.62160174524548</v>
       </c>
       <c r="J30" t="n">
-        <v>81.1934083353724</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K30" t="n">
-        <v>368.9846131525204</v>
+        <v>151.6009105932828</v>
       </c>
       <c r="L30" t="n">
         <v>211.4495804188783</v>
@@ -36934,7 +36934,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R30" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K31" t="n">
-        <v>333.7719580423617</v>
+        <v>83.99154479587474</v>
       </c>
       <c r="L31" t="n">
         <v>112.389039987819</v>
       </c>
       <c r="M31" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N31" t="n">
         <v>519.5461606619943</v>
@@ -37007,10 +37007,10 @@
         <v>486.7068083483686</v>
       </c>
       <c r="P31" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.1083168462693</v>
+        <v>201.3826770243369</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.09406509183667</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J32" t="n">
         <v>141.5096806318895</v>
@@ -37074,10 +37074,10 @@
         <v>220.4146208030745</v>
       </c>
       <c r="L32" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M32" t="n">
-        <v>316.196910361179</v>
+        <v>316.1969103611789</v>
       </c>
       <c r="N32" t="n">
         <v>322.0706239763941</v>
@@ -37092,7 +37092,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R32" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>44.62160174524548</v>
       </c>
       <c r="J33" t="n">
-        <v>298.5771108946097</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K33" t="n">
         <v>151.6009105932828</v>
@@ -37171,7 +37171,7 @@
         <v>114.8008391424319</v>
       </c>
       <c r="R33" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K34" t="n">
-        <v>261.9516537600618</v>
+        <v>83.99154479587474</v>
       </c>
       <c r="L34" t="n">
         <v>112.389039987819</v>
       </c>
       <c r="M34" t="n">
-        <v>119.0333037425816</v>
+        <v>536.7459102706844</v>
       </c>
       <c r="N34" t="n">
         <v>519.5461606619943</v>
       </c>
       <c r="O34" t="n">
-        <v>486.7068083483686</v>
+        <v>484.1608642441363</v>
       </c>
       <c r="P34" t="n">
-        <v>402.7941251653515</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q34" t="n">
         <v>203.9286211285692</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.09406509183667</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J35" t="n">
         <v>141.5096806318895</v>
@@ -37311,7 +37311,7 @@
         <v>220.4146208030745</v>
       </c>
       <c r="L35" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M35" t="n">
         <v>316.1969103611789</v>
@@ -37329,7 +37329,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R35" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J36" t="n">
-        <v>81.1934083353724</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K36" t="n">
         <v>151.6009105932828</v>
@@ -37405,10 +37405,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.8787900293583</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R36" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.9409345920422</v>
+        <v>43.23212989686958</v>
       </c>
       <c r="K37" t="n">
-        <v>83.99154479587473</v>
+        <v>83.99154479587474</v>
       </c>
       <c r="L37" t="n">
-        <v>492.5798415950563</v>
+        <v>341.4544231826979</v>
       </c>
       <c r="M37" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N37" t="n">
-        <v>518.3269142466899</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O37" t="n">
-        <v>105.1893090522037</v>
+        <v>486.7068083483686</v>
       </c>
       <c r="P37" t="n">
-        <v>86.87876701049532</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q37" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>43.09406509183667</v>
+        <v>43.09406509183668</v>
       </c>
       <c r="J38" t="n">
         <v>141.5096806318895</v>
@@ -37548,7 +37548,7 @@
         <v>220.4146208030745</v>
       </c>
       <c r="L38" t="n">
-        <v>279.5009348758923</v>
+        <v>279.5009348758924</v>
       </c>
       <c r="M38" t="n">
         <v>316.1969103611789</v>
@@ -37566,7 +37566,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R38" t="n">
-        <v>91.47476854764778</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.92735341755675</v>
+        <v>44.62160174524548</v>
       </c>
       <c r="J39" t="n">
-        <v>81.1934083353724</v>
+        <v>192.056403536119</v>
       </c>
       <c r="K39" t="n">
         <v>151.6009105932828</v>
@@ -37642,10 +37642,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q39" t="n">
-        <v>355.8787900293583</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R39" t="n">
-        <v>43.22949102775821</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.23212989686958</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K40" t="n">
-        <v>83.99154479587473</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L40" t="n">
-        <v>188.5519005787593</v>
+        <v>492.5798415950563</v>
       </c>
       <c r="M40" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N40" t="n">
-        <v>519.5461606619943</v>
+        <v>421.4490236041412</v>
       </c>
       <c r="O40" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P40" t="n">
-        <v>86.87876701049532</v>
+        <v>86.87876701049534</v>
       </c>
       <c r="Q40" t="n">
-        <v>203.9286211285692</v>
+        <v>51.02609852463075</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>20.92735341755676</v>
       </c>
       <c r="J42" t="n">
-        <v>81.19340833537242</v>
+        <v>322.2713592222984</v>
       </c>
       <c r="K42" t="n">
         <v>151.6009105932828</v>
       </c>
       <c r="L42" t="n">
-        <v>452.5275313058044</v>
+        <v>211.4495804188784</v>
       </c>
       <c r="M42" t="n">
         <v>249.9289506315896</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.23212989686959</v>
+        <v>121.9409345920422</v>
       </c>
       <c r="K43" t="n">
-        <v>83.99154479587476</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L43" t="n">
-        <v>492.5798415950563</v>
+        <v>112.389039987819</v>
       </c>
       <c r="M43" t="n">
         <v>536.7459102706844</v>
       </c>
       <c r="N43" t="n">
-        <v>281.1203607870066</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O43" t="n">
         <v>105.1893090522037</v>
       </c>
       <c r="P43" t="n">
-        <v>402.7941251653515</v>
+        <v>216.0699089559419</v>
       </c>
       <c r="Q43" t="n">
         <v>203.9286211285692</v>
@@ -38019,7 +38019,7 @@
         <v>141.5096806318896</v>
       </c>
       <c r="K44" t="n">
-        <v>220.4146208030745</v>
+        <v>220.414620803075</v>
       </c>
       <c r="L44" t="n">
         <v>279.5009348758924</v>
@@ -38040,7 +38040,7 @@
         <v>181.3569162787562</v>
       </c>
       <c r="R44" t="n">
-        <v>91.4747685476478</v>
+        <v>91.47476854764781</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>44.62160174524548</v>
       </c>
       <c r="J45" t="n">
-        <v>81.19340833537242</v>
+        <v>192.0564035361189</v>
       </c>
       <c r="K45" t="n">
         <v>151.6009105932828</v>
@@ -38116,10 +38116,10 @@
         <v>183.9932973193861</v>
       </c>
       <c r="Q45" t="n">
-        <v>332.1845417016691</v>
+        <v>114.8008391424319</v>
       </c>
       <c r="R45" t="n">
-        <v>43.22949102775823</v>
+        <v>149.7501983862489</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>121.9409345920422</v>
       </c>
       <c r="K46" t="n">
-        <v>167.5836999528273</v>
+        <v>333.7719580423617</v>
       </c>
       <c r="L46" t="n">
         <v>112.389039987819</v>
@@ -38186,13 +38186,13 @@
         <v>536.7459102706844</v>
       </c>
       <c r="N46" t="n">
-        <v>117.4927032459538</v>
+        <v>519.5461606619943</v>
       </c>
       <c r="O46" t="n">
-        <v>486.7068083483686</v>
+        <v>105.1893090522037</v>
       </c>
       <c r="P46" t="n">
-        <v>402.7941251653515</v>
+        <v>216.0699089559419</v>
       </c>
       <c r="Q46" t="n">
         <v>203.9286211285692</v>
